--- a/resources/template/accounting/_movement.xlsx
+++ b/resources/template/accounting/_movement.xlsx
@@ -24,9 +24,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Товары</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>Принял</t>
+  </si>
+  <si>
+    <t>Товар</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,6 +221,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -230,14 +238,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,15 +527,15 @@
   <dimension ref="B2:BE19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
@@ -541,66 +547,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="B6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -608,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -628,7 +634,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="7"/>
@@ -638,23 +644,25 @@
       <c r="H10" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="2:8" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
@@ -667,22 +675,26 @@
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="999" orientation="portrait" r:id="rId1"/>
